--- a/MuseumBase.xlsx
+++ b/MuseumBase.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b.emelyanov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GB_Emelyanov\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E371DC-B01B-4AC6-9D67-251FBA48466E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="14190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="14190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Библиотека Структура таблиц" sheetId="4" r:id="rId1"/>
     <sheet name="База данных в музее" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="109">
   <si>
     <t>Параметр</t>
   </si>
@@ -199,9 +193,6 @@
     <t>Style_id</t>
   </si>
   <si>
-    <t>Exhibit_ID</t>
-  </si>
-  <si>
     <t>Уникальный идентификатор экспоната</t>
   </si>
   <si>
@@ -211,25 +202,163 @@
     <t>Экспонат</t>
   </si>
   <si>
-    <t>Date_ID</t>
-  </si>
-  <si>
-    <t>Уникальный идентификатор даты</t>
-  </si>
-  <si>
     <t>Find_Date</t>
   </si>
   <si>
-    <t>Дата обнаружения экспоната</t>
-  </si>
-  <si>
     <t>Тип экспоната</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор типа</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Подтип экспоната</t>
+  </si>
+  <si>
+    <t>Visitor_id</t>
+  </si>
+  <si>
+    <t>Type_id</t>
+  </si>
+  <si>
+    <t>Exhibit_id</t>
+  </si>
+  <si>
+    <t>Посетитель</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор посетителя</t>
+  </si>
+  <si>
+    <t>Change_id</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор смены</t>
+  </si>
+  <si>
+    <t>Смена</t>
+  </si>
+  <si>
+    <t>Val_Change</t>
+  </si>
+  <si>
+    <t>Номер смены</t>
+  </si>
+  <si>
+    <t>Start_time</t>
+  </si>
+  <si>
+    <t>End_time</t>
+  </si>
+  <si>
+    <t>Время начала смены</t>
+  </si>
+  <si>
+    <t>Время окончания сены</t>
+  </si>
+  <si>
+    <t>Visit_id</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор посещения</t>
+  </si>
+  <si>
+    <t>Посещение</t>
+  </si>
+  <si>
+    <t>Time_Vis_Start</t>
+  </si>
+  <si>
+    <t>Time_Vis_End</t>
+  </si>
+  <si>
+    <t>Programm_id</t>
+  </si>
+  <si>
+    <t>Уни идентификатор программы</t>
+  </si>
+  <si>
+    <t>Программа</t>
+  </si>
+  <si>
+    <t>Время начала посещения</t>
+  </si>
+  <si>
+    <t>Время окончания посещения</t>
+  </si>
+  <si>
+    <t>Название программы</t>
+  </si>
+  <si>
+    <t>Name_programm</t>
+  </si>
+  <si>
+    <t>Start_programm</t>
+  </si>
+  <si>
+    <t>End_programm</t>
+  </si>
+  <si>
+    <t>Museum_Date</t>
+  </si>
+  <si>
+    <t>Дата нахождения</t>
+  </si>
+  <si>
+    <t>Дата добавления в музей</t>
+  </si>
+  <si>
+    <t>Дата старта программы</t>
+  </si>
+  <si>
+    <t>Дата окончания прграмыы</t>
+  </si>
+  <si>
+    <t>Hall_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уни идентификатор зала </t>
+  </si>
+  <si>
+    <t>Hall_name</t>
+  </si>
+  <si>
+    <t>Имя зала</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Номер зала</t>
+  </si>
+  <si>
+    <t>Furniture_id</t>
+  </si>
+  <si>
+    <t>Уни идентификатор мебели</t>
+  </si>
+  <si>
+    <t>Залл</t>
+  </si>
+  <si>
+    <t>Имя мебели</t>
+  </si>
+  <si>
+    <t>Тип мебели</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Количество</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -281,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -612,15 +741,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -629,42 +749,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -694,11 +783,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -736,7 +823,7 @@
         <xdr:cNvPr id="2" name="Прямая соединительная линия 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C79DCE6-5CEF-1243-A529-ABB456F214B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +878,7 @@
         <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E170005A-45D6-B541-BF26-B09DAB81B24D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -846,7 +933,7 @@
         <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AC2CF9-8BF0-1649-B4FD-24EEF4E87697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,7 +988,7 @@
         <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5883CA3-DC0E-7045-8D88-5F4E2052F4D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,7 +1043,7 @@
         <xdr:cNvPr id="13" name="Прямая соединительная линия 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749E119D-5113-DE4C-83FC-1471B26716DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1098,7 @@
         <xdr:cNvPr id="14" name="Прямая соединительная линия 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E37C41E-2D94-CA42-BAF9-76BAF25AADBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,7 +1153,7 @@
         <xdr:cNvPr id="15" name="Прямая соединительная линия 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAEF33D-5D5F-E94D-8194-CDD20ADEFA43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,7 +1208,7 @@
         <xdr:cNvPr id="16" name="Прямая соединительная линия 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9887541C-BE8F-6B49-8755-B5C2E41E1B1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1263,7 @@
         <xdr:cNvPr id="21" name="Прямая соединительная линия 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C619C77-0DEE-D844-8EF8-BC6875200131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,23 +1307,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2540000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>116418</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111241</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Прямая соединительная линия 1">
+        <xdr:cNvPr id="12" name="Прямая соединительная линия 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C79DCE6-5CEF-1243-A529-ABB456F214B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B553AF-D1E7-44DA-8DE6-6B16DAF6450C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,27 +1331,22 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5959475" y="868893"/>
-          <a:ext cx="4699000" cy="1604548"/>
+          <a:off x="6232071" y="7824107"/>
+          <a:ext cx="1945822" cy="639536"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1276,22 +1358,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>18540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>92700</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1653</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
+        <xdr:cNvPr id="14" name="Прямая соединительная линия 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E170005A-45D6-B541-BF26-B09DAB81B24D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52BCA2-34CB-49A2-A1A6-C056378BA211}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,27 +1381,472 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6000240" y="2664450"/>
-          <a:ext cx="4659888" cy="1354042"/>
+          <a:off x="6218464" y="9130393"/>
+          <a:ext cx="1973036" cy="2816678"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2775857</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Прямая соединительная линия 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE2442C-98E8-47CB-90F5-1A77CB88CF89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6204857" y="9416143"/>
+          <a:ext cx="1973036" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая соединительная линия 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DEF620-7878-48FB-8E41-7C9EEF2CA4CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13430250" y="7810500"/>
+          <a:ext cx="2435679" cy="3211286"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Прямая соединительная линия 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA2F908-1D10-47A9-8200-89B38FDC351A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13430250" y="12545786"/>
+          <a:ext cx="2449286" cy="2816678"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1156607</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Прямая соединительная линия 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE1D646-8E2D-4EB6-89E1-D17D2AC72CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="3075214"/>
+          <a:ext cx="1183821" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129393</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1891393</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Прямая соединительная линия 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A7234E-6DE6-421F-B35B-CD56A53F83D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7347857" y="3048000"/>
+          <a:ext cx="762000" cy="2585357"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Прямая соединительная линия 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320C2666-89C4-4726-AAC7-F40AC0FC6B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8164286" y="5633357"/>
+          <a:ext cx="7756071" cy="1074964"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Прямая соединительная линия 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1592E1F7-2C0E-44AF-8914-B8A2996DE030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21961929" y="6681107"/>
+          <a:ext cx="517071" cy="13607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Прямая соединительная линия 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD17CD60-F39F-4415-A9AF-DED1919C2963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22451786" y="6708321"/>
+          <a:ext cx="40821" cy="1415143"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3184071</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Прямая соединительная линия 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DEC9CD-BF8E-4446-9259-C3B6D5E7A0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="21907500" y="8109857"/>
+          <a:ext cx="530679" cy="27214"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1331,50 +1858,45 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>518583</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+        <xdr:cNvPr id="39" name="Прямая соединительная линия 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AC2CF9-8BF0-1649-B4FD-24EEF4E87697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F67617-960E-4773-9CA6-9930C7178281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="518583" y="1869017"/>
-          <a:ext cx="10584" cy="2181225"/>
+        <a:xfrm flipV="1">
+          <a:off x="340179" y="3265714"/>
+          <a:ext cx="503464" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1386,22 +1908,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>522817</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Прямая соединительная линия 4">
+        <xdr:cNvPr id="40" name="Прямая соединительная линия 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5883CA3-DC0E-7045-8D88-5F4E2052F4D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7933B43D-8E6F-430C-948A-AE3101ED52E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,27 +1931,22 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="522817" y="1873251"/>
-          <a:ext cx="270933" cy="6349"/>
+          <a:off x="394607" y="3320143"/>
+          <a:ext cx="1" cy="3469821"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1441,50 +1958,45 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103718</xdr:rowOff>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>797983</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+        <xdr:cNvPr id="41" name="Прямая соединительная линия 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749E119D-5113-DE4C-83FC-1471B26716DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB676562-8327-4837-89A3-1CDE9572669B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="527050" y="4037543"/>
-          <a:ext cx="270933" cy="6349"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="367393" y="6762749"/>
+          <a:ext cx="530678" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1496,50 +2008,45 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>321733</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>78316</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>359833</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>789214</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+        <xdr:cNvPr id="47" name="Прямая соединительная линия 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E37C41E-2D94-CA42-BAF9-76BAF25AADBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3FF0D8-1590-4014-9F4E-D29AA082A523}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="321733" y="1230841"/>
-          <a:ext cx="38100" cy="4560359"/>
+        <a:xfrm flipV="1">
+          <a:off x="285750" y="7470322"/>
+          <a:ext cx="503464" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1551,50 +2058,45 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>325967</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+        <xdr:cNvPr id="48" name="Прямая соединительная линия 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAEF33D-5D5F-E94D-8194-CDD20ADEFA43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D9AB22-69D7-425F-869A-81D6033210B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="325967" y="1235075"/>
-          <a:ext cx="522816" cy="12700"/>
+        <a:xfrm flipH="1">
+          <a:off x="326571" y="7524751"/>
+          <a:ext cx="13607" cy="2435678"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1606,77 +2108,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>791633</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31296</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+        <xdr:cNvPr id="49" name="Прямая соединительная линия 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9887541C-BE8F-6B49-8755-B5C2E41E1B1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="349250" y="5801783"/>
-          <a:ext cx="442383" cy="8466"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>518583</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>93396</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>93396</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C619C77-0DEE-D844-8EF8-BC6875200131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0DE7AE-9FE3-41CB-8936-4AD257CF13F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,27 +2131,22 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="518583" y="1845996"/>
-          <a:ext cx="10584" cy="2181225"/>
+          <a:off x="353786" y="9919607"/>
+          <a:ext cx="521153" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2012,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ90"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5785,11 +6227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5797,35 +6239,35 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="34.75" customWidth="1"/>
+    <col min="10" max="10" width="39.625" customWidth="1"/>
     <col min="11" max="11" width="31.875" customWidth="1"/>
-    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="7.875" customWidth="1"/>
-    <col min="15" max="15" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -5847,26 +6289,22 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -5888,39 +6326,23 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="3"/>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -5941,39 +6363,27 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="9">
-        <v>10</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="3"/>
+    <row r="4" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -5994,39 +6404,41 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9">
-        <v>100</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="9">
-        <v>30</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="3"/>
+    <row r="5" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -6047,39 +6459,55 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="9" t="str">
+        <f>B9</f>
+        <v>Type_id</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f>C9</f>
+        <v>Int</v>
+      </c>
+      <c r="I6" s="9">
+        <f>D9</f>
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>4</v>
+      <c r="J6" s="9" t="str">
+        <f>E9</f>
+        <v>Уникальный идентификатор типа</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="9" t="str">
+        <f>G21</f>
+        <v>Change_id</v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f>H21</f>
+        <v>Int</v>
       </c>
       <c r="N6" s="9">
-        <v>30</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="3"/>
+        <f>I21</f>
+        <v>10</v>
+      </c>
+      <c r="O6" s="9" t="str">
+        <f>J21</f>
+        <v>Уникальный идентификатор смены</v>
+      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -6102,37 +6530,45 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
+      <c r="B7" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9">
         <v>10</v>
       </c>
-      <c r="D7" s="9">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="11" t="s">
-        <v>15</v>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>100</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N7" s="9">
-        <v>30</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -6155,37 +6591,45 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="11" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9">
+        <v>100</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" s="9">
-        <v>8</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -6208,8 +6652,8 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
-        <v>54</v>
+      <c r="B9" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
@@ -6217,28 +6661,28 @@
       <c r="D9" s="9">
         <v>10</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="11" t="s">
-        <v>19</v>
+      <c r="E9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N9" s="9">
-        <v>10</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -6261,37 +6705,29 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="9">
-        <v>20</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="3"/>
+      <c r="E10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -6312,39 +6748,33 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
+      <c r="B11" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="9">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="14">
-        <v>1</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="3"/>
+      <c r="E11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -6365,10 +6795,10 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>9</v>
@@ -6377,18 +6807,26 @@
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -6411,7 +6849,7 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
@@ -6424,16 +6862,28 @@
       <c r="E13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9" t="str">
+        <f>B13</f>
+        <v>Empl_id</v>
+      </c>
+      <c r="H13" s="9" t="str">
+        <f>C13</f>
+        <v>Int</v>
+      </c>
+      <c r="I13" s="9">
+        <f>D13</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="9" t="str">
+        <f>E13</f>
+        <v>Уникальный идентификатор Сотрудника</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -6455,22 +6905,38 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>30</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -6493,21 +6959,37 @@
       <c r="AI14" s="1"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="9">
+        <v>30</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -6530,21 +7012,29 @@
       <c r="AI15" s="1"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9">
+        <v>30</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -6566,26 +7056,30 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="1:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="9">
+        <v>8</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6607,38 +7101,30 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
     </row>
-    <row r="18" spans="1:35" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>3</v>
-      </c>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="9">
+        <v>10</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -6661,37 +7147,29 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="9">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="9">
-        <v>10</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="9">
+        <v>20</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -6714,37 +7192,29 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="9">
-        <v>100</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="9">
-        <v>30</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="9">
+        <v>10</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -6767,37 +7237,29 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="9">
+      <c r="I21" s="9">
         <v>10</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="9">
-        <v>30</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="J21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -6819,38 +7281,22 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="20">
-        <v>12</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="9">
-        <v>30</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>18</v>
-      </c>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -6873,29 +7319,21 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="9">
-        <v>8</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -6918,29 +7356,21 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="9">
-        <v>10</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -6962,32 +7392,22 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="1:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" s="9">
-        <v>20</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>21</v>
-      </c>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -7009,38 +7429,24 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" spans="1:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="14">
-        <v>10</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -7062,30 +7468,30 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="1:35" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9">
-        <v>10</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>3</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -7109,28 +7515,32 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="9">
-        <v>100</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="9" t="str">
+        <f>G41</f>
+        <v>Visit_id</v>
+      </c>
+      <c r="M28" s="9" t="str">
+        <f>H41</f>
+        <v>Int</v>
+      </c>
+      <c r="N28" s="9">
+        <f>I41</f>
+        <v>10</v>
+      </c>
+      <c r="O28" s="9" t="str">
+        <f>J41</f>
+        <v>Уникальный идентификатор посещения</v>
+      </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -7152,30 +7562,32 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="9">
-        <v>100</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="B29" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="9">
+        <v>12</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -7197,30 +7609,38 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="20">
+      <c r="N30" s="9">
         <v>12</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="O30" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -7242,22 +7662,44 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="B31" s="9" t="str">
+        <f>B15</f>
+        <v>Hall_id</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>C15</f>
+        <v>Int</v>
+      </c>
+      <c r="D31" s="9">
+        <f>D15</f>
+        <v>10</v>
+      </c>
+      <c r="E31" s="9" t="str">
+        <f>E15</f>
+        <v xml:space="preserve">Уни идентификатор зала </v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="9">
+        <v>10</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -7279,18 +7721,34 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="B32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9">
+        <v>100</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -7318,16 +7776,36 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="B33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="9">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9" t="str">
+        <f>B13</f>
+        <v>Empl_id</v>
+      </c>
+      <c r="H33" s="9" t="str">
+        <f>C12</f>
+        <v>Int</v>
+      </c>
+      <c r="I33" s="9">
+        <f>D12</f>
+        <v>10</v>
+      </c>
+      <c r="J33" s="9" t="str">
+        <f>E12</f>
+        <v>Уникальный идентификатор посетителя</v>
+      </c>
+      <c r="K33" s="3"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -7353,20 +7831,34 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="1:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="1"/>
+      <c r="B34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="9">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="9">
+        <v>30</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="3"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -7392,32 +7884,32 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="1:35" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="9">
+        <v>30</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -7439,42 +7931,38 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="9">
+        <v>30</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="M36" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="N36" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="O36" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="8" t="str">
-        <f>B39</f>
-        <v>Type</v>
-      </c>
-      <c r="H36" s="9" t="str">
-        <f>C39</f>
-        <v>Text</v>
-      </c>
-      <c r="I36" s="9">
-        <f>D39</f>
-        <v>100</v>
-      </c>
-      <c r="J36" s="10" t="str">
-        <f>E39</f>
-        <v>Тип экспоната</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -7498,21 +7986,13 @@
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="9">
-        <v>10</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="8" t="s">
-        <v>61</v>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>11</v>
@@ -7520,14 +8000,26 @@
       <c r="I37" s="9">
         <v>8</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="J37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="9" t="str">
+        <f>L31</f>
+        <v>Programm_id</v>
+      </c>
+      <c r="M37" s="9" t="str">
+        <f>M31</f>
+        <v>Int</v>
+      </c>
+      <c r="N37" s="9">
+        <f>N31</f>
+        <v>10</v>
+      </c>
+      <c r="O37" s="9" t="str">
+        <f>O31</f>
+        <v>Уни идентификатор программы</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -7551,36 +8043,36 @@
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="D38" s="9">
-        <v>100</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="I38" s="9">
         <v>10</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="J38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="9">
+        <v>100</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -7604,36 +8096,36 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="9">
-        <v>100</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="I39" s="9">
+        <v>20</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="9">
         <v>10</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -7657,28 +8149,36 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="9">
+      <c r="N40" s="9">
         <v>10</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="O40" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -7702,23 +8202,23 @@
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="9">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="9">
         <v>10</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7782,12 +8282,14 @@
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7819,12 +8321,20 @@
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="B44" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>3</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -7858,10 +8368,22 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="B45" s="9" t="str">
+        <f>B34</f>
+        <v>Furniture_id</v>
+      </c>
+      <c r="C45" s="9" t="str">
+        <f>C34</f>
+        <v>Int</v>
+      </c>
+      <c r="D45" s="9">
+        <f>D34</f>
+        <v>10</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <f>E34</f>
+        <v>Уни идентификатор мебели</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -7895,10 +8417,18 @@
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9">
+        <v>100</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -7932,10 +8462,18 @@
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9">
+        <v>100</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -7969,10 +8507,18 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="B48" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="9">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -8635,10 +9181,6 @@
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -8672,20 +9214,12 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -8709,20 +9243,12 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -8744,820 +9270,6 @@
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-      <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-      <c r="AG76" s="1"/>
-      <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
-      <c r="AI84" s="1"/>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
